--- a/[QCN]ListRFList.xlsx
+++ b/[QCN]ListRFList.xlsx
@@ -791,11 +791,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[4/25] ER QCN V2, ANT provide.
-[5/17] ER2 QCN V3, ANT provide.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">JEDI
 </t>
@@ -3147,109 +3142,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>[6/08] EVB Check marketing spec:
-GSM:2/3/5/8
-WCDMA:1/2/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/4/5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/8/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-LTE:1/2/3/4/5/7/8/12/17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/18/19/20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/26/28</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/34/38/39/40/41
-TDSCDMA: none
-CDMA: none
-LAA: none
-[6/11] Add WCDMA B3 and LTE B18/19/20/32 at SDM660_SDR660_HCMMPA_ROW_MASTERFILE.xml ,by AS/Apache</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[7/12] Corona and Kirin implement NO customer MBN.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3548,27 +3440,6 @@
   <si>
     <t xml:space="preserve">[7/16] EVB QCN VEE Done. Apache: NV#26693 QCN = 2 ; </t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[7/17] EVB QCN VEE Done.
-KIRIN_hwid426_bid255_pid255_Master.xml + ASUS_NvDefinition_v23_20180105.xml ==  KIRIN_hwid426_bid255_pid255_Master.xml + NvDefinition.xml</t>
-  </si>
-  <si>
-    <t>[7/04] EVB RF card ID: 413  hwid413_bid255_pid255
-[7/13]  EVB QCN VEE Done.
-RF card ID: 426 hwid426_bid255_pid255</t>
-  </si>
-  <si>
-    <t>[7/13]  EVB QCN VEE Done.
-EVB marketing spec RF Card 426 + 427
-GSM:2/3/5/8
-WCDMA:1/2/3/4/5/6/8/19
-LTE:1/2/3/4/5/7/8/12/17/18/19/20/26/28/29/30/32/34/38/39/40/41
-TDSCDMA: 34/39
-CDMA: BC0
-LAA: Yes
-WCDMA B5 = B6 + B19
-LTE B29/ 32 /46 only Rx</t>
   </si>
   <si>
     <t>[7/17] EVB QCN VEE Done.
@@ -3654,6 +3525,270 @@
         <family val="2"/>
       </rPr>
       <t>JEDI/Draco= 21 ; ARA/Titan =20( no ANT Sharing)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[7/13]  EVB QCN VEE Done.
+EVB marketing spec </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RF Card 426 + 427</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+GSM:2/3/5/8
+WCDMA:1/2/3/4/5/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/8/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+LTE:1/2/3/4/5/7/8/12/17/18/19/20/26/28/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>29</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/30/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">/34/38/39/40/41
+TDSCDMA: 34/39
+CDMA: BC0
+LAA: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Yes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+WCDMA B5 = B6 + B19
+LTE B29/ 32 /46 only Rx</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7/17] EVB QCN VEE Done.
+KIRIN_hwid426_bid255_pid255_Master.xml + ASUS_NvDefinition_v23_20180105.xml ==  KIRIN_hwid426_bid255_pid255_Master.xml + NvDefinition.xml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7/04] EVB RF card ID: 413  hwid413_bid255_pid255
+[7/13]  EVB QCN VEE Done.
+RF card ID: 426 hwid426_bid255_pid255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[6/08] EVB Check marketing spec:
+GSM:2/3/5/8
+WCDMA:1/2/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/4/5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/8/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+LTE:1/2/3/4/5/7/8/12/17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/18/19/20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/26/28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/34/38/39/40/41
+TDSCDMA: none
+CDMA: none
+LAA: none
+[6/11] Add WCDMA B3 and LTE B18/19/20/32 at SDM660_SDR660_HCMMPA_ROW_MASTERFILE.xml ,by AS/Apache</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[4/25] ER QCN V2, ANT provide.
+[5/17] ER2 QCN V3, ANT provide.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[Need ANT provide]</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4302,8 +4437,8 @@
   </sheetPr>
   <dimension ref="A2:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.4"/>
@@ -4315,7 +4450,8 @@
     <col min="6" max="8" width="8.6328125" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.81640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="6.81640625" style="1" customWidth="1"/>
-    <col min="11" max="14" width="40.6328125" style="1" customWidth="1"/>
+    <col min="11" max="12" width="40.6328125" style="1" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="40.6328125" style="1" customWidth="1"/>
     <col min="15" max="15" width="38" style="1" customWidth="1"/>
     <col min="16" max="16384" width="8.7265625" style="1"/>
   </cols>
@@ -4344,16 +4480,16 @@
         <v>24</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K2" s="33" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="L2" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M2" s="32" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N2" s="32" t="s">
         <v>22</v>
@@ -4364,31 +4500,31 @@
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="194" x14ac:dyDescent="0.4">
       <c r="B3" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="E3" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="15"/>
       <c r="I3" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="13" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -4396,29 +4532,29 @@
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="46" x14ac:dyDescent="0.4">
       <c r="B4" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="15"/>
       <c r="I4" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="13" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
@@ -4426,27 +4562,27 @@
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" ht="50" x14ac:dyDescent="0.4">
       <c r="B5" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="F5" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="15"/>
       <c r="I5" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
@@ -4454,29 +4590,29 @@
     </row>
     <row r="6" spans="1:15" s="2" customFormat="1" ht="138" x14ac:dyDescent="0.4">
       <c r="B6" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="15"/>
       <c r="I6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
@@ -4484,32 +4620,32 @@
     </row>
     <row r="7" spans="1:15" s="2" customFormat="1" ht="70" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="15"/>
       <c r="I7" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
@@ -4517,29 +4653,29 @@
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" ht="103.5" x14ac:dyDescent="0.4">
       <c r="B8" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="15"/>
       <c r="I8" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="13" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
@@ -4547,14 +4683,14 @@
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="23" x14ac:dyDescent="0.4">
       <c r="B9" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
@@ -4564,7 +4700,7 @@
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="13" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -4573,17 +4709,17 @@
     </row>
     <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B10" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="F10" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="15"/>
@@ -4593,7 +4729,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -4601,18 +4737,18 @@
     </row>
     <row r="11" spans="1:15" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.4">
       <c r="B11" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="15"/>
       <c r="I11" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="11"/>
@@ -4623,11 +4759,11 @@
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.4">
       <c r="B12" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="17"/>
@@ -4645,11 +4781,11 @@
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="23" x14ac:dyDescent="0.4">
       <c r="B13" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="17"/>
@@ -4660,10 +4796,10 @@
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
@@ -4671,16 +4807,16 @@
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.4">
       <c r="B14" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>91</v>
-      </c>
       <c r="E14" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
@@ -4688,10 +4824,10 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
@@ -4699,47 +4835,47 @@
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" ht="211.5" x14ac:dyDescent="0.4">
       <c r="B15" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>0</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="13" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N15" s="13" t="s">
         <v>54</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="2" customFormat="1" ht="23" x14ac:dyDescent="0.4">
       <c r="B16" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C16" s="30" t="s">
         <v>0</v>
@@ -4758,15 +4894,15 @@
         <v>52</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
       <c r="M16" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="N16" s="11" t="s">
         <v>50</v>
@@ -4775,13 +4911,13 @@
     </row>
     <row r="17" spans="2:15" s="2" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>12</v>
@@ -4803,7 +4939,7 @@
     </row>
     <row r="18" spans="2:15" s="2" customFormat="1" ht="46" x14ac:dyDescent="0.4">
       <c r="B18" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="34" t="s">
         <v>4</v>
@@ -4812,7 +4948,7 @@
         <v>51</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F18" s="26" t="s">
         <v>29</v>
@@ -4824,17 +4960,17 @@
         <v>34</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J18" s="25"/>
       <c r="K18" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N18" s="13" t="s">
         <v>55</v>
@@ -4843,7 +4979,7 @@
     </row>
     <row r="19" spans="2:15" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="4" t="s">
@@ -4857,29 +4993,29 @@
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N19" s="13" t="s">
         <v>56</v>
       </c>
       <c r="O19" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="2:15" s="2" customFormat="1" ht="46" x14ac:dyDescent="0.4">
       <c r="B20" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="4" t="s">
@@ -4893,18 +5029,18 @@
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N20" s="13" t="s">
         <v>39</v>
@@ -4913,7 +5049,7 @@
     </row>
     <row r="21" spans="2:15" s="2" customFormat="1" ht="49" x14ac:dyDescent="0.4">
       <c r="B21" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="5" t="s">
@@ -4936,7 +5072,7 @@
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="N21" s="13" t="s">
         <v>57</v>
@@ -4947,7 +5083,7 @@
     </row>
     <row r="22" spans="2:15" s="2" customFormat="1" ht="23" x14ac:dyDescent="0.4">
       <c r="B22" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C22" s="34" t="s">
         <v>7</v>
@@ -4956,7 +5092,7 @@
         <v>8</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>27</v>
@@ -4971,7 +5107,7 @@
       <c r="J22" s="4"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M22" s="11" t="s">
         <v>61</v>
@@ -4983,14 +5119,14 @@
     </row>
     <row r="23" spans="2:15" s="2" customFormat="1" ht="46" x14ac:dyDescent="0.4">
       <c r="B23" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C23" s="35"/>
       <c r="D23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6" t="s">
@@ -5003,12 +5139,12 @@
         <v>16</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
       <c r="M23" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="N23" s="11" t="s">
         <v>45</v>
@@ -5019,14 +5155,14 @@
     </row>
     <row r="24" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B24" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="36"/>
       <c r="D24" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
@@ -5051,7 +5187,7 @@
     </row>
     <row r="25" spans="2:15" s="2" customFormat="1" ht="35.5" x14ac:dyDescent="0.4">
       <c r="B25" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" s="37" t="s">
         <v>18</v>
@@ -5060,14 +5196,14 @@
         <v>46</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>2</v>
@@ -5075,10 +5211,10 @@
       <c r="J25" s="4"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N25" s="11" t="s">
         <v>58</v>
@@ -5087,14 +5223,14 @@
     </row>
     <row r="26" spans="2:15" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.4">
       <c r="B26" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" s="38"/>
       <c r="D26" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>27</v>
@@ -5104,60 +5240,60 @@
         <v>33</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K26" s="11"/>
       <c r="L26" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B27" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="H27" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>96</v>
-      </c>
       <c r="I27" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="N27" s="11"/>
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="2:15" s="2" customFormat="1" ht="97" x14ac:dyDescent="0.4">
       <c r="B28" s="28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C28" s="29" t="s">
         <v>41</v>
@@ -5179,18 +5315,18 @@
         <v>49</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="N28" s="4" t="s">
         <v>59</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="2:15" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.4">

--- a/[QCN]ListRFList.xlsx
+++ b/[QCN]ListRFList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="120" windowWidth="19010" windowHeight="7130"/>
+    <workbookView xWindow="80" yWindow="120" windowWidth="14320" windowHeight="5460"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="163">
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,8 +402,20 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">[4/13] RF request enable MAAT, RF Driver </t>
+    <t>EFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GSM CLPC close</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. add EFS file /rf/clpc_disable.dat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[5/4] RF Driver lose,</t>
     </r>
     <r>
       <rPr>
@@ -412,32 +424,13 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">Hard Coding.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[4/13] RF request, Driver </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> RedownLoad QCN because NV#29570 Size Structure can't hard coding.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RF Provide </t>
+      <t xml:space="preserve"> Hard coding.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[4/2] RF driver,</t>
     </r>
     <r>
       <rPr>
@@ -446,48 +439,6 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>NV#29452/ 29570</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EFS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GSM CLPC close</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. add EFS file /rf/clpc_disable.dat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[5/4] RF Driver lose,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Hard coding.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[4/2] RF driver,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
       <t>Hard coding,</t>
     </r>
     <r>
@@ -503,21 +454,6 @@
   </si>
   <si>
     <t>cxm_mode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ANT provide</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> NV#29578 RFNV_ATUNER_TREE_DATA_I</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2176,70 +2112,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1. LTE : sar_tx_power_limit_dB10  = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>230</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-2. WCDMA: sar_mtpl_dbm10 =</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 240</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-3. GSM: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NV#29194~29197</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-4. CDMA:  RFNV_DATA_TYPE_CDMA_VARIANT_SAR
-5. TDSCDMA:  no need</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SAR initial Value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2494,43 +2366,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">[5/17] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">ER2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>QCN V3, RF request.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[4/19] ER QCN V1, default SAR value.
 [4/25] ER2 QCN V2, tune WCDMA from 230 to 240.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[Need RF provide]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Need ANT provide]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="9"/>
@@ -2789,10 +2629,6 @@
   </si>
   <si>
     <t>Feed back RX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Need RF driver Hard coding]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2948,196 +2784,6 @@
         <family val="2"/>
       </rPr>
       <t>[Need RF provide :Check LTE B46 K/T]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[6/13] Draco </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>有在工廠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>TAR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">加入
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>RF/Albert</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>需要支援</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>GSM CLPC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> RF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>是想要導入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">GSM FBRx Calibration ?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Need RF provide : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>想確認</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>RF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>是想要導入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>GSM FBRx Calibration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>嗎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>?]
-[7/05] RF/Josh_JJ: GSM FBRx =&gt; RF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>確認不導入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, need add efs at MP TAR.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-[7/12] PR2 QCN V6 implement disable clpc EFS file</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3777,6 +3423,373 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">1. LTE : sar_tx_power_limit_dB10  = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>230</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2. WCDMA: sar_mtpl_dbm10 =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 240</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3. GSM: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NV#29194~29197</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+4. CDMA:  RFNV_DATA_TYPE_CDMA_VARIANT_SAR
+5. TDSCDMA:  no need</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[4/13] RF request enable MAAT, RF Driver </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Hard Coding.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[4/13] RF request, Driver </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> RedownLoad QCN because NV#29570 Size Structure can't hard coding.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7/02] RF Driver / Jeff hard coding at QCT_SDM845_M3.15.35-MP / QCT_SDM845_Dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7/25] RF Driver / Jeff hard coding "ID" at QCT_SDM845_M3.15.35-MP / QCT_SDM845_Dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Need ANT provide]
+[8/02] RF/Marco Lo not update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[Need ANT provide]
+[8/02] RF/Marco Lo not update</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7/30] RF Driver/Jeff will implement SAR at QCT_SDM845_M3.15.35-MP / QCT_SDM845_Dev.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[5/17] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ER2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>QCN V3, RF request.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[6/13] Draco </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>有在工廠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">加入
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RF/Albert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>需要支援</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GSM CLPC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> RF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>是想要導入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">GSM FBRx Calibration ?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Need RF provide : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>想確認</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>是想要導入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GSM FBRx Calibration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>嗎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?]
+[7/05] RF/Josh_JJ: GSM FBRx =&gt; RF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>確認不導入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, need add efs at MP TAR.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[7/12] PR2 QCN V6 implement disable clpc EFS file</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ANT provide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> NV#29578 RFNV_ATUNER_TREE_DATA_I</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">[4/25] ER QCN V2, ANT provide.
 [5/17] ER2 QCN V3, ANT provide.
 </t>
@@ -3789,6 +3802,21 @@
         <family val="2"/>
       </rPr>
       <t>[Need ANT provide]</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RF Provide </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NV#29452/ 29570</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4095,14 +4123,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4437,8 +4465,8 @@
   </sheetPr>
   <dimension ref="A2:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.4"/>
@@ -4449,7 +4477,7 @@
     <col min="5" max="5" width="37.36328125" style="1" customWidth="1"/>
     <col min="6" max="8" width="8.6328125" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.81640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.81640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.81640625" style="1" hidden="1" customWidth="1"/>
     <col min="11" max="12" width="40.6328125" style="1" hidden="1" customWidth="1"/>
     <col min="13" max="14" width="40.6328125" style="1" customWidth="1"/>
     <col min="15" max="15" width="38" style="1" customWidth="1"/>
@@ -4479,19 +4507,19 @@
       <c r="I2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="32" t="s">
-        <v>141</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="L2" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="M2" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="N2" s="32" t="s">
+      <c r="J2" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="K2" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="N2" s="31" t="s">
         <v>22</v>
       </c>
       <c r="O2" s="16" t="s">
@@ -4500,31 +4528,31 @@
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="194" x14ac:dyDescent="0.4">
       <c r="B3" s="28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="15"/>
       <c r="I3" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="13" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -4532,29 +4560,29 @@
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="46" x14ac:dyDescent="0.4">
       <c r="B4" s="28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>70</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>73</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="15"/>
       <c r="I4" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="13" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
@@ -4562,27 +4590,27 @@
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" ht="50" x14ac:dyDescent="0.4">
       <c r="B5" s="28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>71</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>74</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="15"/>
       <c r="I5" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
@@ -4590,29 +4618,29 @@
     </row>
     <row r="6" spans="1:15" s="2" customFormat="1" ht="138" x14ac:dyDescent="0.4">
       <c r="B6" s="28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="15"/>
       <c r="I6" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="13" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
@@ -4620,32 +4648,32 @@
     </row>
     <row r="7" spans="1:15" s="2" customFormat="1" ht="70" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="15"/>
       <c r="I7" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="13" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
@@ -4653,29 +4681,29 @@
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" ht="103.5" x14ac:dyDescent="0.4">
       <c r="B8" s="28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="15"/>
       <c r="I8" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="13" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
@@ -4683,14 +4711,14 @@
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="23" x14ac:dyDescent="0.4">
       <c r="B9" s="28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
@@ -4700,7 +4728,7 @@
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="13" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -4709,17 +4737,17 @@
     </row>
     <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B10" s="28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="15"/>
@@ -4729,7 +4757,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -4737,18 +4765,18 @@
     </row>
     <row r="11" spans="1:15" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.4">
       <c r="B11" s="28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C11" s="35"/>
       <c r="D11" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
       <c r="H11" s="15"/>
       <c r="I11" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="11"/>
@@ -4759,11 +4787,11 @@
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.4">
       <c r="B12" s="28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="17"/>
@@ -4781,11 +4809,11 @@
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="23" x14ac:dyDescent="0.4">
       <c r="B13" s="28" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C13" s="36"/>
       <c r="D13" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="17"/>
@@ -4796,10 +4824,10 @@
       </c>
       <c r="J13" s="4"/>
       <c r="K13" s="13" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
@@ -4807,16 +4835,16 @@
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.4">
       <c r="B14" s="28" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
@@ -4824,10 +4852,10 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
       <c r="K14" s="11" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="L14" s="11" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
@@ -4835,47 +4863,47 @@
     </row>
     <row r="15" spans="1:15" s="2" customFormat="1" ht="211.5" x14ac:dyDescent="0.4">
       <c r="B15" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C15" s="30" t="s">
         <v>0</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="19"/>
       <c r="H15" s="13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J15" s="4"/>
       <c r="K15" s="13" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="N15" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="O15" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:15" s="2" customFormat="1" ht="23" x14ac:dyDescent="0.4">
       <c r="B16" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C16" s="30" t="s">
         <v>0</v>
@@ -4884,40 +4912,40 @@
         <v>1</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F16" s="17" t="s">
         <v>29</v>
       </c>
       <c r="G16" s="17"/>
       <c r="H16" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I16" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="J16" s="4" t="s">
         <v>125</v>
-      </c>
-      <c r="J16" s="4" t="s">
-        <v>132</v>
       </c>
       <c r="K16" s="11"/>
       <c r="L16" s="11"/>
-      <c r="M16" s="31" t="s">
-        <v>129</v>
+      <c r="M16" s="14" t="s">
+        <v>157</v>
       </c>
       <c r="N16" s="11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="O16" s="4"/>
     </row>
     <row r="17" spans="2:15" s="2" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B17" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>12</v>
@@ -4939,16 +4967,16 @@
     </row>
     <row r="18" spans="2:15" s="2" customFormat="1" ht="46" x14ac:dyDescent="0.4">
       <c r="B18" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C18" s="34" t="s">
         <v>4</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E18" s="25" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F18" s="26" t="s">
         <v>29</v>
@@ -4960,62 +4988,62 @@
         <v>34</v>
       </c>
       <c r="I18" s="25" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J18" s="25"/>
       <c r="K18" s="11" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="M18" s="11" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N18" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="O18" s="4"/>
     </row>
     <row r="19" spans="2:15" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C19" s="35"/>
       <c r="D19" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G19" s="3"/>
       <c r="H19" s="14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
-      <c r="M19" s="31" t="s">
-        <v>130</v>
+      <c r="M19" s="33" t="s">
+        <v>155</v>
       </c>
       <c r="N19" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="O19" s="39" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="2:15" s="2" customFormat="1" ht="46" x14ac:dyDescent="0.4">
       <c r="B20" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C20" s="35"/>
       <c r="D20" s="4" t="s">
@@ -5029,34 +5057,34 @@
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
-      <c r="M20" s="31" t="s">
-        <v>130</v>
+      <c r="M20" s="33" t="s">
+        <v>156</v>
       </c>
       <c r="N20" s="13" t="s">
-        <v>39</v>
+        <v>152</v>
       </c>
       <c r="O20" s="40"/>
     </row>
     <row r="21" spans="2:15" s="2" customFormat="1" ht="49" x14ac:dyDescent="0.4">
       <c r="B21" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C21" s="36"/>
       <c r="D21" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>27</v>
@@ -5072,18 +5100,18 @@
       <c r="K21" s="13"/>
       <c r="L21" s="13"/>
       <c r="M21" s="13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="O21" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="2:15" s="2" customFormat="1" ht="23" x14ac:dyDescent="0.4">
       <c r="B22" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C22" s="34" t="s">
         <v>7</v>
@@ -5092,7 +5120,7 @@
         <v>8</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>27</v>
@@ -5107,26 +5135,26 @@
       <c r="J22" s="4"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M22" s="11" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N22" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="O22" s="4"/>
     </row>
     <row r="23" spans="2:15" s="2" customFormat="1" ht="46" x14ac:dyDescent="0.4">
       <c r="B23" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C23" s="35"/>
       <c r="D23" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6" t="s">
@@ -5139,15 +5167,15 @@
         <v>16</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K23" s="11"/>
       <c r="L23" s="11"/>
-      <c r="M23" s="31" t="s">
-        <v>130</v>
+      <c r="M23" s="15" t="s">
+        <v>153</v>
       </c>
       <c r="N23" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="O23" s="5" t="s">
         <v>14</v>
@@ -5155,14 +5183,14 @@
     </row>
     <row r="24" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B24" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C24" s="36"/>
       <c r="D24" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
@@ -5179,7 +5207,7 @@
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
       <c r="N24" s="12" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="O24" s="4" t="s">
         <v>15</v>
@@ -5187,23 +5215,23 @@
     </row>
     <row r="25" spans="2:15" s="2" customFormat="1" ht="35.5" x14ac:dyDescent="0.4">
       <c r="B25" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C25" s="37" t="s">
         <v>18</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I25" s="4" t="s">
         <v>2</v>
@@ -5211,26 +5239,26 @@
       <c r="J25" s="4"/>
       <c r="K25" s="11"/>
       <c r="L25" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M25" s="11" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="N25" s="11" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="O25" s="4"/>
     </row>
     <row r="26" spans="2:15" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.4">
       <c r="B26" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C26" s="38"/>
       <c r="D26" s="4" t="s">
         <v>17</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>27</v>
@@ -5240,69 +5268,69 @@
         <v>33</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K26" s="11"/>
       <c r="L26" s="11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="N26" s="13" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O26" s="5" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
-    <row r="27" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:15" s="2" customFormat="1" ht="23" x14ac:dyDescent="0.4">
       <c r="B27" s="28" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C27" s="29"/>
       <c r="D27" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="23" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
-      <c r="M27" s="31" t="s">
-        <v>138</v>
+      <c r="M27" s="14" t="s">
+        <v>154</v>
       </c>
       <c r="N27" s="11"/>
       <c r="O27" s="4"/>
     </row>
     <row r="28" spans="2:15" s="2" customFormat="1" ht="97" x14ac:dyDescent="0.4">
       <c r="B28" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C28" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>27</v>
@@ -5312,21 +5340,21 @@
         <v>33</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="5" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="2:15" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.4">

--- a/[QCN]ListRFList.xlsx
+++ b/[QCN]ListRFList.xlsx
@@ -12,14 +12,14 @@
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$B$2:$O$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$B$2:$O$29</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="168">
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -387,21 +387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>RF Provide</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> NV#29451/ 29452/ 29570</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EFS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -601,10 +586,6 @@
       </rPr>
       <t>Hard Coding Shipping.</t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Algorithm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -745,10 +726,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[4/25] ER2 QCN V2, NV#26693 =2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QCN: ER
 Hard Coding: PR~MP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2120,63 +2097,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">NV#26693 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">QCN = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">; Hard code = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (ACL)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[6/11] EVB QCN:  NV#26693 QCN = 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2655,136 +2575,6 @@
   </si>
   <si>
     <t>Filter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[6/13] RF/Albert: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>目前還屬於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>階段，等下個</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>run </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>後期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>PR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>驗證</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/fine tune</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>過後再提供，那個才會是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>final </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">K data.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Need RF provide :Check LTE B46 K/T]</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3520,21 +3310,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[7/02] RF Driver / Jeff hard coding at QCT_SDM845_M3.15.35-MP / QCT_SDM845_Dev</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>[7/25] RF Driver / Jeff hard coding "ID" at QCT_SDM845_M3.15.35-MP / QCT_SDM845_Dev</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Need ANT provide]
-[8/02] RF/Marco Lo not update</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[Need ANT provide]
-[8/02] RF/Marco Lo not update</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3775,6 +3551,181 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">RF Provide </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NV#29452/ 29570</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[8/02] RF/Marco AsDiv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">是上下天線切換的參數。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AsDiv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>參數，就是我們會提供包含天線和硬體的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上下切換以及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Rx0/Rx1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上下切換的差異表給你們評估是否需要調整</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Qualcomm default threshold
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>然後你們會請</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>field trial team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>測試看有沒有問題</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4/25] ER2 QCN V2, NV#26693 =2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QCN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[8/10] SDM8150 TAR function is differnet with SDM845.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7/02] RF Driver / Jeff hard coding at QCT_SDM845_M3.15.35-MP / QCT_SDM845_Dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>RF Provide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> NV#29451/ 29452/ 29570</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>ANT provide</t>
     </r>
     <r>
@@ -3785,6 +3736,225 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> NV#29578 RFNV_ATUNER_TREE_DATA_I</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NV#26693 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">QCN = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">; Hard code = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>支援</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MAAT+ACL+OL)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[6/13] RF/Albert: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>目前還屬於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>階段，等下個</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>run </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>後期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>驗證</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/fine tune</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>過後再提供，那個才會是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>final </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">K data.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[8/22] RF/Albert provided.MP QCN v.9</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[8/08] RF/Marco Lo provide ACL/MAAT.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+[8/14] Redownload QCN V8,</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3797,26 +3967,11 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[Need ANT provide]</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RF Provide </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>NV#29452/ 29570</t>
+      <t>[8/14] Redownload QCN V8, ANT/Jason provide.</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4029,7 +4184,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4128,9 +4283,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4463,10 +4615,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:O30"/>
+  <dimension ref="A2:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.4"/>
@@ -4477,9 +4629,8 @@
     <col min="5" max="5" width="37.36328125" style="1" customWidth="1"/>
     <col min="6" max="8" width="8.6328125" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.81640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.81640625" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="40.6328125" style="1" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="40.6328125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.81640625" style="1" customWidth="1"/>
+    <col min="11" max="14" width="40.6328125" style="1" customWidth="1"/>
     <col min="15" max="15" width="38" style="1" customWidth="1"/>
     <col min="16" max="16384" width="8.7265625" style="1"/>
   </cols>
@@ -4508,16 +4659,16 @@
         <v>24</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="L2" s="32" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M2" s="31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="N2" s="31" t="s">
         <v>22</v>
@@ -4528,31 +4679,31 @@
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="194" x14ac:dyDescent="0.4">
       <c r="B3" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>115</v>
+        <v>62</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>111</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="15"/>
       <c r="I3" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="13" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -4560,29 +4711,29 @@
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1" ht="46" x14ac:dyDescent="0.4">
       <c r="B4" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="35"/>
+        <v>62</v>
+      </c>
+      <c r="C4" s="34"/>
       <c r="D4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>67</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>70</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="15"/>
       <c r="I4" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="13" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
@@ -4590,27 +4741,27 @@
     </row>
     <row r="5" spans="1:15" s="2" customFormat="1" ht="50" x14ac:dyDescent="0.4">
       <c r="B5" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>68</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>71</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="15"/>
       <c r="I5" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
@@ -4618,29 +4769,29 @@
     </row>
     <row r="6" spans="1:15" s="2" customFormat="1" ht="138" x14ac:dyDescent="0.4">
       <c r="B6" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="35"/>
+        <v>62</v>
+      </c>
+      <c r="C6" s="34"/>
       <c r="D6" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="15"/>
       <c r="I6" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="13" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
@@ -4648,32 +4799,32 @@
     </row>
     <row r="7" spans="1:15" s="2" customFormat="1" ht="70" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="35"/>
+        <v>62</v>
+      </c>
+      <c r="C7" s="34"/>
       <c r="D7" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="15"/>
       <c r="I7" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="13" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
@@ -4681,29 +4832,29 @@
     </row>
     <row r="8" spans="1:15" s="2" customFormat="1" ht="103.5" x14ac:dyDescent="0.4">
       <c r="B8" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="35"/>
+        <v>62</v>
+      </c>
+      <c r="C8" s="34"/>
       <c r="D8" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="15"/>
       <c r="I8" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="13" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
@@ -4711,14 +4862,14 @@
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="23" x14ac:dyDescent="0.4">
       <c r="B9" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="35"/>
+        <v>62</v>
+      </c>
+      <c r="C9" s="34"/>
       <c r="D9" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
@@ -4728,7 +4879,7 @@
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -4737,17 +4888,17 @@
     </row>
     <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B10" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="35"/>
+        <v>62</v>
+      </c>
+      <c r="C10" s="34"/>
       <c r="D10" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="15"/>
@@ -4757,7 +4908,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -4765,21 +4916,25 @@
     </row>
     <row r="11" spans="1:15" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.4">
       <c r="B11" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="35"/>
+        <v>156</v>
+      </c>
+      <c r="C11" s="34"/>
       <c r="D11" s="4" t="s">
-        <v>83</v>
+        <v>157</v>
       </c>
       <c r="E11" s="4"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29" t="s">
+        <v>158</v>
+      </c>
       <c r="H11" s="15"/>
       <c r="I11" s="4" t="s">
-        <v>76</v>
+        <v>159</v>
       </c>
       <c r="J11" s="4"/>
-      <c r="K11" s="11"/>
+      <c r="K11" s="15" t="s">
+        <v>160</v>
+      </c>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
       <c r="N11" s="11"/>
@@ -4787,18 +4942,18 @@
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.4">
       <c r="B12" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C12" s="35"/>
+        <v>62</v>
+      </c>
+      <c r="C12" s="34"/>
       <c r="D12" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="15"/>
       <c r="I12" s="4" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="11"/>
@@ -4807,13 +4962,13 @@
       <c r="N12" s="11"/>
       <c r="O12" s="4"/>
     </row>
-    <row r="13" spans="1:15" s="2" customFormat="1" ht="23" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.4">
       <c r="B13" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="C13" s="36"/>
+        <v>62</v>
+      </c>
+      <c r="C13" s="34"/>
       <c r="D13" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="17"/>
@@ -4823,568 +4978,592 @@
         <v>2</v>
       </c>
       <c r="J13" s="4"/>
-      <c r="K13" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>139</v>
-      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
       <c r="M13" s="11"/>
       <c r="N13" s="11"/>
       <c r="O13" s="4"/>
     </row>
-    <row r="14" spans="1:15" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="23" x14ac:dyDescent="0.4">
       <c r="B14" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>120</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C14" s="35"/>
       <c r="D14" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>137</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E14" s="4"/>
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>2</v>
+      </c>
       <c r="J14" s="4"/>
-      <c r="K14" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>135</v>
+      <c r="K14" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>134</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" ht="211.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.4">
       <c r="B15" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>116</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="F15" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="19"/>
-      <c r="H15" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>107</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="N15" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="O15" s="5" t="s">
-        <v>62</v>
-      </c>
+      <c r="K15" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" s="2" customFormat="1" ht="23" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" s="2" customFormat="1" ht="211.5" x14ac:dyDescent="0.4">
       <c r="B16" s="28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C16" s="30" t="s">
         <v>0</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="19"/>
+      <c r="H16" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="M16" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" s="2" customFormat="1" ht="23" x14ac:dyDescent="0.4">
+      <c r="B17" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F16" s="17" t="s">
+      <c r="E17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="4" t="s">
+      <c r="G17" s="17"/>
+      <c r="H17" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J17" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="J16" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="N16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="O16" s="4"/>
-    </row>
-    <row r="17" spans="2:15" s="2" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
+      <c r="M17" s="14" t="s">
+        <v>149</v>
+      </c>
       <c r="N17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="O17" s="4"/>
+    </row>
+    <row r="18" spans="2:15" s="2" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B18" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="O18" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:15" s="2" customFormat="1" ht="46" x14ac:dyDescent="0.4">
-      <c r="B18" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C18" s="34" t="s">
+    <row r="19" spans="2:15" s="2" customFormat="1" ht="46" x14ac:dyDescent="0.4">
+      <c r="B19" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="F18" s="26" t="s">
+      <c r="D19" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="G19" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="H18" s="18" t="s">
+      <c r="H19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I19" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="25"/>
+      <c r="K19" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O19" s="4"/>
+    </row>
+    <row r="20" spans="2:15" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B20" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="J18" s="25"/>
-      <c r="K18" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="L18" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="M18" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="N18" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="O18" s="4"/>
-    </row>
-    <row r="19" spans="2:15" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="4" t="s">
+      <c r="C20" s="34"/>
+      <c r="D20" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F19" s="6" t="s">
+      <c r="E20" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="I19" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="J19" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="N19" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="O19" s="39" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" s="2" customFormat="1" ht="46" x14ac:dyDescent="0.4">
-      <c r="B20" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>27</v>
-      </c>
       <c r="G20" s="3"/>
-      <c r="H20" s="13" t="s">
-        <v>118</v>
+      <c r="H20" s="14" t="s">
+        <v>113</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
-      <c r="M20" s="33" t="s">
-        <v>156</v>
+      <c r="M20" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="N20" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="O20" s="40"/>
+        <v>51</v>
+      </c>
+      <c r="O20" s="38" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="21" spans="2:15" s="2" customFormat="1" ht="49" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:15" s="2" customFormat="1" ht="46" x14ac:dyDescent="0.4">
       <c r="B21" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="36"/>
-      <c r="D21" s="5" t="s">
-        <v>6</v>
+        <v>61</v>
+      </c>
+      <c r="C21" s="34"/>
+      <c r="D21" s="4" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G21" s="3"/>
-      <c r="H21" s="15" t="s">
-        <v>35</v>
+      <c r="H21" s="13" t="s">
+        <v>114</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13" t="s">
-        <v>161</v>
+        <v>3</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="14" t="s">
+        <v>166</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="O21" s="5" t="s">
-        <v>45</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="O21" s="39"/>
     </row>
-    <row r="22" spans="2:15" s="2" customFormat="1" ht="23" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:15" s="2" customFormat="1" ht="49" x14ac:dyDescent="0.4">
       <c r="B22" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>8</v>
+        <v>61</v>
+      </c>
+      <c r="C22" s="35"/>
+      <c r="D22" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G22" s="3"/>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O22" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" s="2" customFormat="1" ht="62.5" x14ac:dyDescent="0.4">
+      <c r="B23" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="4" t="s">
+      <c r="I23" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="M22" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="N22" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="O22" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N23" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>153</v>
+      </c>
     </row>
-    <row r="23" spans="2:15" s="2" customFormat="1" ht="46" x14ac:dyDescent="0.4">
-      <c r="B23" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="4" t="s">
+    <row r="24" spans="2:15" s="2" customFormat="1" ht="46" x14ac:dyDescent="0.4">
+      <c r="B24" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="34"/>
+      <c r="D24" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6" t="s">
+      <c r="E24" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H24" s="13" t="s">
         <v>36</v>
-      </c>
-      <c r="I23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="N23" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="O23" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="36"/>
-      <c r="D24" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>31</v>
       </c>
       <c r="I24" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J24" s="4"/>
+      <c r="J24" s="4" t="s">
+        <v>122</v>
+      </c>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="12" t="s">
+      <c r="M24" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="N24" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="O24" s="4" t="s">
-        <v>15</v>
+      <c r="O24" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:15" s="2" customFormat="1" ht="35.5" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B25" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="37" t="s">
-        <v>18</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C25" s="35"/>
       <c r="D25" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="13" t="s">
-        <v>89</v>
+        <v>10</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J25" s="4"/>
       <c r="K25" s="11"/>
-      <c r="L25" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="M25" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="N25" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="O25" s="4"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="26" spans="2:15" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:15" s="2" customFormat="1" ht="35.5" x14ac:dyDescent="0.4">
       <c r="B26" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="38"/>
+        <v>61</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>18</v>
+      </c>
       <c r="D26" s="4" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="15" t="s">
-        <v>33</v>
+        <v>141</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G26" s="6"/>
+      <c r="H26" s="13" t="s">
+        <v>86</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>126</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J26" s="4"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="M26" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="N26" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="O26" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="O26" s="4"/>
+    </row>
+    <row r="27" spans="2:15" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.4">
+      <c r="B27" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="37"/>
+      <c r="D27" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>124</v>
       </c>
+      <c r="F27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>120</v>
+      </c>
     </row>
-    <row r="27" spans="2:15" s="2" customFormat="1" ht="23" x14ac:dyDescent="0.4">
-      <c r="B27" s="28" t="s">
+    <row r="28" spans="2:15" s="2" customFormat="1" ht="23" x14ac:dyDescent="0.4">
+      <c r="B28" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="29"/>
+      <c r="D28" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="C27" s="29"/>
-      <c r="D27" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="J27" s="4" t="s">
+      <c r="H28" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="N28" s="11"/>
+      <c r="O28" s="4"/>
+    </row>
+    <row r="29" spans="2:15" s="2" customFormat="1" ht="97" x14ac:dyDescent="0.4">
+      <c r="B29" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="O29" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="N27" s="11"/>
-      <c r="O27" s="4"/>
     </row>
-    <row r="28" spans="2:15" s="2" customFormat="1" ht="97" x14ac:dyDescent="0.4">
-      <c r="B28" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="I28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>130</v>
-      </c>
+    <row r="30" spans="2:15" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.4">
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
     </row>
-    <row r="29" spans="2:15" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.4">
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-    </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:O28"/>
+  <autoFilter ref="B2:O29"/>
   <mergeCells count="5">
-    <mergeCell ref="C22:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="O19:O20"/>
-    <mergeCell ref="C3:C13"/>
-    <mergeCell ref="C18:C21"/>
+    <mergeCell ref="C23:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="O20:O21"/>
+    <mergeCell ref="C3:C14"/>
+    <mergeCell ref="C19:C22"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/[QCN]ListRFList.xlsx
+++ b/[QCN]ListRFList.xlsx
@@ -7,19 +7,19 @@
     <workbookView xWindow="80" yWindow="120" windowWidth="14320" windowHeight="5460"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="BeforeQCNTask" sheetId="2" r:id="rId1"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId2"/>
     <sheet name="工作表3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$B$2:$O$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">工作表1!$B$2:$O$29</definedName>
   </definedNames>
   <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="171">
   <si>
     <t>SAR</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1533,158 +1533,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Master file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>若為</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Update </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>工廠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Code base</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>檢查</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>可以直接比較</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Masterfile.xml, 
-2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>若差異太大可用</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NV Tool</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>產生</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>QCN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>比較，再詢問</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>RF Driver</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>是否要加入修改。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>V</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1693,97 +1541,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>需要知道是用哪一張</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">RF card </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>當作基底</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-NV#28967</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>需要對照</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Marketing SPEC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，新增</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Band Static RF NV</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>XPT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PA states</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1950,94 +1708,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>修改</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">xxx_TX_STATIC_DATA_I </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> number_of_active_pa_states and pa_range_map
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>a. number_of_active_pa_states = 2 / pa_range_map = 1 0 (disable XPT)
-b. number_of_active_pa_states = 3 / pa_range_map = 2 1 0 (EPT)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>修改</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">xpt_config 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>a. xpt_config = 0 (disable XPT)
-b. xpt_config = 2 (EPT)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Marketing Spec</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2446,60 +2116,6 @@
   </si>
   <si>
     <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. RF provide </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NV#29453</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>須包含</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>RSB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>資料</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2590,6 +2206,1541 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[7/04] GPS/JeremyChiang provide ZF6 GPS NV.
+[7/10] Implement ZF6 GPS NV.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">[7/16] EVB QCN VEE Done. Apache: NV#26693 QCN = 2 ; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7/04] GPS/JeremyChiang provide ZF6 GPS NV.
+[7/10] EVB QCN VEE Done. Implement ZF6 GPS NV.</t>
+  </si>
+  <si>
+    <t>[7/17] EVB QCN VEE Done.</t>
+  </si>
+  <si>
+    <r>
+      <t>[6/08] EVB Check marketing spec:
+GSM:2/3/5/8
+WCDMA:1/2/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/4/5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/8/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+LTE:1/2/3/4/5/7/8/12/17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/18/19/20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/26/28</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/32</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/34/38/39/40/41
+TDSCDMA: none
+CDMA: none
+LAA: none
+[6/11] Add WCDMA B3 and LTE B18/19/20/32 at SDM660_SDR660_HCMMPA_ROW_MASTERFILE.xml ,by AS/Apache</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. LTE : sar_tx_power_limit_dB10  = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>230</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2. WCDMA: sar_mtpl_dbm10 =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 240</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+3. GSM: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NV#29194~29197</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+4. CDMA:  RFNV_DATA_TYPE_CDMA_VARIANT_SAR
+5. TDSCDMA:  no need</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[4/13] RF request enable MAAT, RF Driver </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Hard Coding.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[4/13] RF request, Driver </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> RedownLoad QCN because NV#29570 Size Structure can't hard coding.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7/25] RF Driver / Jeff hard coding "ID" at QCT_SDM845_M3.15.35-MP / QCT_SDM845_Dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7/30] RF Driver/Jeff will implement SAR at QCT_SDM845_M3.15.35-MP / QCT_SDM845_Dev.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[5/17] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ER2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>QCN V3, RF request.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[6/13] Draco </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>有在工廠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>TAR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">加入
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RF/Albert</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>需要支援</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GSM CLPC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>→</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> RF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>是想要導入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">GSM FBRx Calibration ?
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[Need RF provide : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>想確認</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>是想要導入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>GSM FBRx Calibration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>嗎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>?]
+[7/05] RF/Josh_JJ: GSM FBRx =&gt; RF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>確認不導入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, need add efs at MP TAR.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[7/12] PR2 QCN V6 implement disable clpc EFS file</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RF Provide </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NV#29452/ 29570</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[8/02] RF/Marco AsDiv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">是上下天線切換的參數。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AsDiv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>參數，就是我們會提供包含天線和硬體的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tx</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上下切換以及</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Rx0/Rx1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>上下切換的差異表給你們評估是否需要調整</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Qualcomm default threshold
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>然後你們會請</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>field trial team</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>測試看有沒有問題</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[4/25] ER2 QCN V2, NV#26693 =2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QCN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TAR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[7/02] RF Driver / Jeff hard coding at QCT_SDM845_M3.15.35-MP / QCT_SDM845_Dev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>RF Provide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> NV#29451/ 29452/ 29570</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ANT provide</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> NV#29578 RFNV_ATUNER_TREE_DATA_I</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NV#26693 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">QCN = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">; Hard code = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>6 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>支援</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>MAAT+ACL+OL)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[6/13] RF/Albert: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>目前還屬於</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>階段，等下個</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>run </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>後期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>PR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>驗證</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/fine tune</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>過後再提供，那個才會是</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>final </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">K data.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[8/22] RF/Albert provided.MP QCN v.9</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[8/08] RF/Marco Lo provide ACL/MAAT.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+[8/14] Redownload QCN V8,</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[4/25] ER QCN V2, ANT provide.
+[5/17] ER2 QCN V3, ANT provide.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[8/14] Redownload QCN V8, ANT/Jason provide.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">xxx_TX_STATIC_DATA_I </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> number_of_active_pa_states and pa_range_map
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a. number_of_active_pa_states = 2 / pa_range_map = 1 0 (disable XPT)
+b. number_of_active_pa_states = 3 / pa_range_map = 2 1 0 (EPT)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[7/17] EVB QCN VEE Done.
+RF Driver Apache: a. number_of_active_pa_states = 2 / pa_range_map = 1 0 (disable XPT)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[9/11] EVB QCN VEB Done</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+217 RFNV_DATA_TYPE_TXAGC_CONTROL
+RF Driver Apache: a. number_of_active_pa_states =</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / pa_range_map = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">1 0 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(disable XPT)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. RF provide </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NV#29453</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>須包含</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RSB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>資料</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>若有</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LTE B46</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，詢問</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RF/RF Driver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">NV#73775 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>JEDI/Draco= 21 ; ARA/Titan =20( no ANT Sharing)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>需要知道是用哪一張</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">RF card </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>當作基底</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+NV#28967</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>若為</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Update </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>工廠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Code base</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>檢查</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>可以直接比較</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Masterfile.xml, 
+2.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>若差異太大可用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NV Tool</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>產生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>QCN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>比較，再詢問</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RF Driver</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>是否要加入修改。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>需要對照</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Marketing SPEC</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>，新增</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Band Static RF NV</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA states</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[8/10] SDM8150 TAR function is differnet with SDM845.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WCDMA B5 = B6 + B19 , LTE B29/ 32 /46 only Rx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[7/04] EVB RF card ID: 413  hwid413_bid255_pid255
+[7/13]  EVB QCN VEE Done.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RF card ID: 426 hwid426_bid255_pid255
+[9/11] Change RF card ID to 666.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+[11/5] 1. case#03567429 RF card ID at 80-PF657-660_B_MPSS_HE_RFC_Selection_Guide
+2. SR QCN VDE: Base on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">489 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">rfc_sdr8150_mmpa_row
+3.  Change RF card ID to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>666</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[7/17] EVB QCN VEE Done.
+KIRIN_hwid426_bid255_pid255_Master.xml + ASUS_NvDefinition_v23_20180105.xml ==  KIRIN_hwid426_bid255_pid255_Master.xml + NvDefinition.xml
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[9/11] Update Code base to Pre CS2.2, modified  ASUS_NvDefinition_v24_20180911.xml </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+[11/5]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Update Code base to CS2,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 489 Master file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + NvDefinition.xml == </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>489 Master file</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> + ASUS_NvDefinition_v24_20180911.xml
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">1. </t>
     </r>
@@ -2869,70 +4020,100 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[7/04] GPS/JeremyChiang provide ZF6 GPS NV.
-[7/10] Implement ZF6 GPS NV.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">[7/16] EVB QCN VEE Done. Apache: NV#26693 QCN = 2 ; </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[7/17] EVB QCN VEE Done.
-RF Driver Apache: a. number_of_active_pa_states = 2 / pa_range_map = 1 0 (disable XPT)</t>
-  </si>
-  <si>
-    <t>[7/13] make sure 
+    <r>
+      <t xml:space="preserve">4) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="細明體"/>
+        <family val="3"/>
+        <charset val="136"/>
+      </rPr>
+      <t>修改</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">xpt_config 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a. xpt_config = 0 (disable XPT)
+b. xpt_config = 2 (EPT)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[11/5] RF Driver KuanYu remove 
+NV#29624
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[7/13] make sure 
 volterra_mode = Disable / 
 autopin_mode = Disable / 
 autodelay_mode = Disable /  
 dpd_mode = use DPD stored for with memory calibratioin, base on kernal config stored in multilin cal NV
 [7/17] EVB QCN VEE Done.
-RF Driver Apache: a. xpt_config = 0 (disable XPT)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[7/17] EVB QCN VEE Done.
-RF Driver Apache: Remove NV #28874 </t>
-  </si>
-  <si>
-    <t>[7/04] GPS/JeremyChiang provide ZF6 GPS NV.
-[7/10] EVB QCN VEE Done. Implement ZF6 GPS NV.</t>
-  </si>
-  <si>
-    <t>[7/17] EVB QCN VEE Done.</t>
-  </si>
-  <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>若有</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>LTE B46</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>，詢問RF/RF Driver。</t>
+RF Driver Apache: a. xpt_config = 0 (disable XPT)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[9/12] EVB QCN VEB Done
+a. number_of_active_pa_states = 2 / pa_range_map = 1 0 (disable XPT)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[7/17] EVB QCN VEE Done.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RF Driver Apache: Remove NV #28874 
+[9/12] EVB QCN VEB Done</t>
     </r>
     <r>
       <rPr>
@@ -2942,25 +4123,7 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">NV#73775 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>JEDI/Draco= 21 ; ARA/Titan =20( no ANT Sharing)</t>
+Master file no have NV#28874</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2972,7 +4135,7 @@
     <r>
       <rPr>
         <sz val="9"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
@@ -3087,32 +4250,104 @@
     <r>
       <rPr>
         <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>[9/11] Update Master file to CS2.2 : 426 + 427</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+GSM:2/3/5/8
+WCDMA:1/2/3/4/5/6/8/19
+LTE:1/2/3/4/5/7/8/12/17/18/19/20/26/28/29/30/32/34/38/39/40/41
+TDSCDMA: 34/39
+CDMA: BC0
+LAA: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
         <color rgb="FFFF0000"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">
-WCDMA B5 = B6 + B19
-LTE B29/ 32 /46 only Rx</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[7/17] EVB QCN VEE Done.
-KIRIN_hwid426_bid255_pid255_Master.xml + ASUS_NvDefinition_v23_20180105.xml ==  KIRIN_hwid426_bid255_pid255_Master.xml + NvDefinition.xml</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[7/04] EVB RF card ID: 413  hwid413_bid255_pid255
-[7/13]  EVB QCN VEE Done.
-RF card ID: 426 hwid426_bid255_pid255</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[6/08] EVB Check marketing spec:
-GSM:2/3/5/8
-WCDMA:1/2/</t>
+      <t xml:space="preserve">Yes
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[11/5] SR QCN Master file to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>QCT_SM8150.LA.1.0_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CS2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>_5.8.408.1 : rfc_sdr8150_mmpa_row (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>489</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>) + rfc_sdr8150_mmpa_na (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>488</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
     </r>
     <r>
       <rPr>
@@ -3121,858 +4356,17 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/4/5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/6</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/8/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-LTE:1/2/3/4/5/7/8/12/17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/18/19/20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/26/28</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/32</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/34/38/39/40/41
-TDSCDMA: none
-CDMA: none
-LAA: none
-[6/11] Add WCDMA B3 and LTE B18/19/20/32 at SDM660_SDR660_HCMMPA_ROW_MASTERFILE.xml ,by AS/Apache</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. LTE : sar_tx_power_limit_dB10  = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>230</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-2. WCDMA: sar_mtpl_dbm10 =</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 240</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-3. GSM: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NV#29194~29197</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-4. CDMA:  RFNV_DATA_TYPE_CDMA_VARIANT_SAR
-5. TDSCDMA:  no need</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[4/13] RF request enable MAAT, RF Driver </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Hard Coding.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[4/13] RF request, Driver </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> RedownLoad QCN because NV#29570 Size Structure can't hard coding.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[7/25] RF Driver / Jeff hard coding "ID" at QCT_SDM845_M3.15.35-MP / QCT_SDM845_Dev</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[7/30] RF Driver/Jeff will implement SAR at QCT_SDM845_M3.15.35-MP / QCT_SDM845_Dev.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[5/17] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ER2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>QCN V3, RF request.</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[6/13] Draco </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>有在工廠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>TAR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">加入
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>RF/Albert</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>需要支援</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>GSM CLPC</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>→</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t> RF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>是想要導入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">GSM FBRx Calibration ?
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[Need RF provide : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>想確認</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>RF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>是想要導入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>GSM FBRx Calibration</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>嗎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>?]
-[7/05] RF/Josh_JJ: GSM FBRx =&gt; RF</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>確認不導入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>, need add efs at MP TAR.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[7/12] PR2 QCN V6 implement disable clpc EFS file</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RF Provide </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>NV#29452/ 29570</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>[8/02] RF/Marco AsDiv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">是上下天線切換的參數。
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>AsDiv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>參數，就是我們會提供包含天線和硬體的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tx</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>上下切換以及</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Rx0/Rx1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>上下切換的差異表給你們評估是否需要調整</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Qualcomm default threshold
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>然後你們會請</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>field trial team</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>測試看有沒有問題</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Algorithm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[4/25] ER2 QCN V2, NV#26693 =2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QCN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TAR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>V</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[8/10] SDM8150 TAR function is differnet with SDM845.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[7/02] RF Driver / Jeff hard coding at QCT_SDM845_M3.15.35-MP / QCT_SDM845_Dev</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>RF Provide</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> NV#29451/ 29452/ 29570</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>ANT provide</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> NV#29578 RFNV_ATUNER_TREE_DATA_I</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">NV#26693 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">QCN = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">; Hard code = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>6 (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>支援</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>MAAT+ACL+OL)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[6/13] RF/Albert: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>目前還屬於</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>ER</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>階段，等下個</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>run </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>後期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>PR</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>驗證</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>/fine tune</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>過後再提供，那個才會是</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>final </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="細明體"/>
-        <family val="3"/>
-        <charset val="136"/>
-      </rPr>
-      <t>的</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">K data.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[8/22] RF/Albert provided.MP QCN v.9</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[8/08] RF/Marco Lo provide ACL/MAAT.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-[8/14] Redownload QCN V8,</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[4/25] ER QCN V2, ANT provide.
-[5/17] ER2 QCN V3, ANT provide.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>[8/14] Redownload QCN V8, ANT/Jason provide.</t>
-    </r>
+      <t>GSM:2/3/5/8
+WCDMA:1/2/3/4/5/6/8/19
+LTE:1/2/3/4/5/7/8/12/17/18/19/20/26/28/29/30/32/34/38/39/40/41
+TDSCDMA: 34/39
+CDMA: BC0
+LAA: Yes</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 灌最新的QPST/QDART</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4184,7 +4578,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4304,6 +4698,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4612,13 +5009,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.4"/>
@@ -4630,7 +5048,8 @@
     <col min="6" max="8" width="8.6328125" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.81640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="6.81640625" style="1" customWidth="1"/>
-    <col min="11" max="14" width="40.6328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="40.6328125" style="1" customWidth="1"/>
+    <col min="12" max="14" width="40.6328125" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="38" style="1" customWidth="1"/>
     <col min="16" max="16384" width="8.7265625" style="1"/>
   </cols>
@@ -4659,10 +5078,10 @@
         <v>24</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="L2" s="32" t="s">
         <v>60</v>
@@ -4682,34 +5101,34 @@
         <v>62</v>
       </c>
       <c r="C3" s="33" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>63</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="15"/>
       <c r="I3" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J3" s="4"/>
       <c r="K3" s="13" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="L3" s="13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" ht="46" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" s="2" customFormat="1" ht="103.5" x14ac:dyDescent="0.4">
       <c r="B4" s="28" t="s">
         <v>62</v>
       </c>
@@ -4718,22 +5137,22 @@
         <v>64</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>69</v>
+        <v>155</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="15"/>
       <c r="I4" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J4" s="4"/>
       <c r="K4" s="13" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
@@ -4745,131 +5164,133 @@
       </c>
       <c r="C5" s="34"/>
       <c r="D5" s="4" t="s">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>68</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="15"/>
       <c r="I5" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="11"/>
       <c r="L5" s="11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M5" s="11"/>
       <c r="N5" s="11"/>
       <c r="O5" s="4"/>
     </row>
-    <row r="6" spans="1:15" s="2" customFormat="1" ht="138" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" s="2" customFormat="1" ht="322" x14ac:dyDescent="0.4">
       <c r="B6" s="28" t="s">
         <v>62</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>70</v>
+        <v>158</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="15"/>
       <c r="I6" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J6" s="4"/>
       <c r="K6" s="13" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
-      <c r="O6" s="4"/>
+      <c r="O6" s="40" t="s">
+        <v>161</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" s="2" customFormat="1" ht="70" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" s="2" customFormat="1" ht="80.5" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>62</v>
       </c>
       <c r="C7" s="34"/>
       <c r="D7" s="4" t="s">
-        <v>72</v>
+        <v>159</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G7" s="17"/>
       <c r="H7" s="15"/>
       <c r="I7" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" s="13" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
       <c r="O7" s="4"/>
     </row>
-    <row r="8" spans="1:15" s="2" customFormat="1" ht="103.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" s="2" customFormat="1" ht="138" x14ac:dyDescent="0.4">
       <c r="B8" s="28" t="s">
         <v>62</v>
       </c>
       <c r="C8" s="34"/>
       <c r="D8" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G8" s="17"/>
       <c r="H8" s="15"/>
       <c r="I8" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="13" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="M8" s="11"/>
       <c r="N8" s="11"/>
       <c r="O8" s="4"/>
     </row>
-    <row r="9" spans="1:15" s="2" customFormat="1" ht="23" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="46" x14ac:dyDescent="0.4">
       <c r="B9" s="28" t="s">
         <v>62</v>
       </c>
       <c r="C9" s="34"/>
       <c r="D9" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
@@ -4879,7 +5300,7 @@
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="13" t="s">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -4892,13 +5313,13 @@
       </c>
       <c r="C10" s="34"/>
       <c r="D10" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F10" s="29" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G10" s="17"/>
       <c r="H10" s="15"/>
@@ -4908,7 +5329,7 @@
       <c r="J10" s="4"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="M10" s="11"/>
       <c r="N10" s="11"/>
@@ -4916,20 +5337,20 @@
     </row>
     <row r="11" spans="1:15" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.4">
       <c r="B11" s="28" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C11" s="34"/>
       <c r="D11" s="4" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="29"/>
       <c r="G11" s="29" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="4" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="15" t="s">
@@ -4940,23 +5361,25 @@
       <c r="N11" s="11"/>
       <c r="O11" s="4"/>
     </row>
-    <row r="12" spans="1:15" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="34.5" x14ac:dyDescent="0.4">
       <c r="B12" s="28" t="s">
         <v>62</v>
       </c>
       <c r="C12" s="34"/>
       <c r="D12" s="4" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="17"/>
       <c r="G12" s="17"/>
       <c r="H12" s="15"/>
       <c r="I12" s="4" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="J12" s="4"/>
-      <c r="K12" s="11"/>
+      <c r="K12" s="13" t="s">
+        <v>166</v>
+      </c>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
       <c r="N12" s="11"/>
@@ -4968,7 +5391,7 @@
       </c>
       <c r="C13" s="34"/>
       <c r="D13" s="4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="17"/>
@@ -4990,7 +5413,7 @@
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="4" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="17"/>
@@ -5001,27 +5424,27 @@
       </c>
       <c r="J14" s="4"/>
       <c r="K14" s="13" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="M14" s="11"/>
       <c r="N14" s="11"/>
       <c r="O14" s="4"/>
     </row>
-    <row r="15" spans="1:15" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="11.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B15" s="28" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17"/>
@@ -5029,16 +5452,16 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
       <c r="K15" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="M15" s="11"/>
       <c r="N15" s="11"/>
       <c r="O15" s="4"/>
     </row>
-    <row r="16" spans="1:15" s="2" customFormat="1" ht="211.5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" s="2" customFormat="1" ht="211.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B16" s="28" t="s">
         <v>61</v>
       </c>
@@ -5046,30 +5469,30 @@
         <v>0</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>27</v>
       </c>
       <c r="G16" s="19"/>
       <c r="H16" s="13" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="J16" s="4"/>
       <c r="K16" s="13" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="N16" s="13" t="s">
         <v>49</v>
@@ -5078,7 +5501,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17" spans="2:15" s="2" customFormat="1" ht="23" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:15" s="2" customFormat="1" ht="23" hidden="1" x14ac:dyDescent="0.4">
       <c r="B17" s="28" t="s">
         <v>61</v>
       </c>
@@ -5099,30 +5522,30 @@
         <v>47</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11"/>
       <c r="M17" s="14" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="N17" s="11" t="s">
         <v>46</v>
       </c>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="2:15" s="2" customFormat="1" ht="12.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:15" s="2" customFormat="1" ht="12.5" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B18" s="28" t="s">
         <v>61</v>
       </c>
       <c r="C18" s="29" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>12</v>
@@ -5142,7 +5565,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:15" s="2" customFormat="1" ht="46" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:15" s="2" customFormat="1" ht="46" hidden="1" x14ac:dyDescent="0.4">
       <c r="B19" s="28" t="s">
         <v>61</v>
       </c>
@@ -5150,10 +5573,10 @@
         <v>4</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="F19" s="26" t="s">
         <v>29</v>
@@ -5169,20 +5592,20 @@
       </c>
       <c r="J19" s="25"/>
       <c r="K19" s="11" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="L19" s="11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="N19" s="13" t="s">
         <v>50</v>
       </c>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="2:15" s="2" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:15" s="2" customFormat="1" ht="25" hidden="1" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="28" t="s">
         <v>61</v>
       </c>
@@ -5191,34 +5614,34 @@
         <v>30</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="14" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="14" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="N20" s="13" t="s">
         <v>51</v>
       </c>
       <c r="O20" s="38" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
-    <row r="21" spans="2:15" s="2" customFormat="1" ht="46" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:15" s="2" customFormat="1" ht="46" hidden="1" x14ac:dyDescent="0.4">
       <c r="B21" s="28" t="s">
         <v>61</v>
       </c>
@@ -5227,32 +5650,32 @@
         <v>5</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>27</v>
       </c>
       <c r="G21" s="3"/>
       <c r="H21" s="13" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="K21" s="11"/>
       <c r="L21" s="11"/>
       <c r="M21" s="14" t="s">
-        <v>166</v>
+        <v>149</v>
       </c>
       <c r="N21" s="13" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="O21" s="39"/>
     </row>
-    <row r="22" spans="2:15" s="2" customFormat="1" ht="49" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:15" s="2" customFormat="1" ht="49" hidden="1" x14ac:dyDescent="0.4">
       <c r="B22" s="28" t="s">
         <v>61</v>
       </c>
@@ -5261,7 +5684,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>27</v>
@@ -5277,7 +5700,7 @@
       <c r="K22" s="13"/>
       <c r="L22" s="13"/>
       <c r="M22" s="13" t="s">
-        <v>167</v>
+        <v>150</v>
       </c>
       <c r="N22" s="13" t="s">
         <v>52</v>
@@ -5286,7 +5709,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="2:15" s="2" customFormat="1" ht="62.5" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:15" s="2" customFormat="1" ht="62.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B23" s="28" t="s">
         <v>61</v>
       </c>
@@ -5297,7 +5720,7 @@
         <v>8</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>27</v>
@@ -5312,7 +5735,7 @@
       <c r="J23" s="4"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M23" s="11" t="s">
         <v>56</v>
@@ -5321,10 +5744,10 @@
         <v>55</v>
       </c>
       <c r="O23" s="5" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="24" spans="2:15" s="2" customFormat="1" ht="46" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:15" s="2" customFormat="1" ht="46" hidden="1" x14ac:dyDescent="0.4">
       <c r="B24" s="28" t="s">
         <v>61</v>
       </c>
@@ -5333,7 +5756,7 @@
         <v>11</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6" t="s">
@@ -5346,12 +5769,12 @@
         <v>16</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="K24" s="11"/>
       <c r="L24" s="11"/>
       <c r="M24" s="15" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
       <c r="N24" s="11" t="s">
         <v>42</v>
@@ -5360,7 +5783,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="2:15" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:15" s="2" customFormat="1" hidden="1" x14ac:dyDescent="0.4">
       <c r="B25" s="28" t="s">
         <v>61</v>
       </c>
@@ -5369,7 +5792,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3" t="s">
@@ -5392,7 +5815,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="2:15" s="2" customFormat="1" ht="35.5" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:15" s="2" customFormat="1" ht="35.5" hidden="1" x14ac:dyDescent="0.4">
       <c r="B26" s="28" t="s">
         <v>61</v>
       </c>
@@ -5403,14 +5826,14 @@
         <v>43</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>29</v>
       </c>
       <c r="G26" s="6"/>
       <c r="H26" s="13" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>2</v>
@@ -5418,17 +5841,17 @@
       <c r="J26" s="4"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M26" s="11" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="N26" s="11" t="s">
         <v>53</v>
       </c>
       <c r="O26" s="4"/>
     </row>
-    <row r="27" spans="2:15" s="2" customFormat="1" ht="48" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:15" s="2" customFormat="1" ht="48" hidden="1" x14ac:dyDescent="0.4">
       <c r="B27" s="28" t="s">
         <v>61</v>
       </c>
@@ -5437,7 +5860,7 @@
         <v>17</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>124</v>
+        <v>153</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>27</v>
@@ -5447,58 +5870,58 @@
         <v>33</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="J27" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="K27" s="11"/>
       <c r="L27" s="11" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c r="N27" s="13" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="O27" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="28" spans="2:15" s="2" customFormat="1" ht="23" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:15" s="2" customFormat="1" ht="23" hidden="1" x14ac:dyDescent="0.4">
       <c r="B28" s="28" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C28" s="29"/>
       <c r="D28" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F28" s="23"/>
       <c r="G28" s="23" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H28" s="11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="14" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="N28" s="11"/>
       <c r="O28" s="4"/>
     </row>
-    <row r="29" spans="2:15" s="2" customFormat="1" ht="97" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:15" s="2" customFormat="1" ht="97" hidden="1" x14ac:dyDescent="0.4">
       <c r="B29" s="28" t="s">
         <v>61</v>
       </c>
@@ -5522,18 +5945,18 @@
         <v>45</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="5" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="N29" s="4" t="s">
         <v>54</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="2:15" s="2" customFormat="1" ht="11.5" x14ac:dyDescent="0.4">
@@ -5557,7 +5980,13 @@
       <c r="G31" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:O29"/>
+  <autoFilter ref="B2:O29">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="QCN"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="5">
     <mergeCell ref="C23:C25"/>
     <mergeCell ref="C26:C27"/>
@@ -5568,19 +5997,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="63" orientation="landscape" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
